--- a/processed_data/Weekly_distribution/Globo_CT_weekly_share.xlsx
+++ b/processed_data/Weekly_distribution/Globo_CT_weekly_share.xlsx
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>24.445</v>
+        <v>4.889</v>
       </c>
       <c r="E2">
         <v>3.271</v>
       </c>
       <c r="F2">
-        <v>0.134</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>24.445</v>
+        <v>4.889</v>
       </c>
       <c r="E3">
         <v>6.408</v>
       </c>
       <c r="F3">
-        <v>0.262</v>
+        <v>1.311</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>24.445</v>
+        <v>4.889</v>
       </c>
       <c r="E4">
         <v>4.101</v>
       </c>
       <c r="F4">
-        <v>0.168</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>24.445</v>
+        <v>4.889</v>
       </c>
       <c r="E5">
         <v>4.566</v>
       </c>
       <c r="F5">
-        <v>0.187</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>24.445</v>
+        <v>4.889</v>
       </c>
       <c r="E6">
         <v>6.1</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>30.116</v>
+        <v>6.023</v>
       </c>
       <c r="E7">
         <v>7.906</v>
       </c>
       <c r="F7">
-        <v>0.263</v>
+        <v>1.313</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>30.116</v>
+        <v>6.023</v>
       </c>
       <c r="E8">
         <v>5.777</v>
       </c>
       <c r="F8">
-        <v>0.192</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>30.116</v>
+        <v>6.023</v>
       </c>
       <c r="E9">
         <v>5.251</v>
       </c>
       <c r="F9">
-        <v>0.174</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>30.116</v>
+        <v>6.023</v>
       </c>
       <c r="E10">
         <v>4.003</v>
       </c>
       <c r="F10">
-        <v>0.133</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>30.116</v>
+        <v>6.023</v>
       </c>
       <c r="E11">
         <v>7.179</v>
       </c>
       <c r="F11">
-        <v>0.238</v>
+        <v>1.192</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>19.192</v>
+        <v>4.798</v>
       </c>
       <c r="E12">
         <v>5.982</v>
       </c>
       <c r="F12">
-        <v>0.312</v>
+        <v>1.247</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>19.192</v>
+        <v>4.798</v>
       </c>
       <c r="E13">
         <v>5.024</v>
       </c>
       <c r="F13">
-        <v>0.262</v>
+        <v>1.047</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,13 +660,13 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>19.192</v>
+        <v>4.798</v>
       </c>
       <c r="E14">
         <v>3.299</v>
       </c>
       <c r="F14">
-        <v>0.172</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>19.192</v>
+        <v>4.798</v>
       </c>
       <c r="E15">
         <v>4.887</v>
       </c>
       <c r="F15">
-        <v>0.255</v>
+        <v>1.019</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>9.587</v>
+        <v>3.196</v>
       </c>
       <c r="E16">
         <v>2.564</v>
       </c>
       <c r="F16">
-        <v>0.267</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>9.587</v>
+        <v>3.196</v>
       </c>
       <c r="E17">
         <v>2.832</v>
       </c>
       <c r="F17">
-        <v>0.295</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>9.587</v>
+        <v>3.196</v>
       </c>
       <c r="E18">
         <v>4.191</v>
       </c>
       <c r="F18">
-        <v>0.437</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,13 +760,13 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>7.047</v>
+        <v>3.523</v>
       </c>
       <c r="E19">
         <v>4.655</v>
       </c>
       <c r="F19">
-        <v>0.661</v>
+        <v>1.321</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,13 +780,13 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>7.047</v>
+        <v>3.523</v>
       </c>
       <c r="E20">
         <v>2.392</v>
       </c>
       <c r="F20">
-        <v>0.339</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,13 +800,13 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <v>5.658</v>
+        <v>1.414</v>
       </c>
       <c r="E21">
         <v>1.295</v>
       </c>
       <c r="F21">
-        <v>0.229</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,13 +820,13 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>5.658</v>
+        <v>1.414</v>
       </c>
       <c r="E22">
         <v>1.976</v>
       </c>
       <c r="F22">
-        <v>0.349</v>
+        <v>1.397</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>5.658</v>
+        <v>1.414</v>
       </c>
       <c r="E23">
         <v>1.375</v>
       </c>
       <c r="F23">
-        <v>0.243</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,13 +860,13 @@
         <v>30</v>
       </c>
       <c r="D24">
-        <v>5.658</v>
+        <v>1.414</v>
       </c>
       <c r="E24">
         <v>1.012</v>
       </c>
       <c r="F24">
-        <v>0.179</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,13 +880,13 @@
         <v>31</v>
       </c>
       <c r="D25">
-        <v>10.555</v>
+        <v>2.111</v>
       </c>
       <c r="E25">
         <v>1.98</v>
       </c>
       <c r="F25">
-        <v>0.188</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,13 +900,13 @@
         <v>32</v>
       </c>
       <c r="D26">
-        <v>10.555</v>
+        <v>2.111</v>
       </c>
       <c r="E26">
         <v>1.64</v>
       </c>
       <c r="F26">
-        <v>0.155</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,13 +920,13 @@
         <v>33</v>
       </c>
       <c r="D27">
-        <v>10.555</v>
+        <v>2.111</v>
       </c>
       <c r="E27">
         <v>2.224</v>
       </c>
       <c r="F27">
-        <v>0.211</v>
+        <v>1.053</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,13 +940,13 @@
         <v>34</v>
       </c>
       <c r="D28">
-        <v>10.555</v>
+        <v>2.111</v>
       </c>
       <c r="E28">
         <v>1.293</v>
       </c>
       <c r="F28">
-        <v>0.122</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,13 +960,13 @@
         <v>35</v>
       </c>
       <c r="D29">
-        <v>10.555</v>
+        <v>2.111</v>
       </c>
       <c r="E29">
         <v>3.419</v>
       </c>
       <c r="F29">
-        <v>0.324</v>
+        <v>1.619</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,13 +980,13 @@
         <v>36</v>
       </c>
       <c r="D30">
-        <v>6.871</v>
+        <v>1.718</v>
       </c>
       <c r="E30">
         <v>2.096</v>
       </c>
       <c r="F30">
-        <v>0.305</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>37</v>
       </c>
       <c r="D31">
-        <v>6.871</v>
+        <v>1.718</v>
       </c>
       <c r="E31">
         <v>1.874</v>
       </c>
       <c r="F31">
-        <v>0.273</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,13 +1020,13 @@
         <v>38</v>
       </c>
       <c r="D32">
-        <v>6.871</v>
+        <v>1.718</v>
       </c>
       <c r="E32">
         <v>1.368</v>
       </c>
       <c r="F32">
-        <v>0.199</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>39</v>
       </c>
       <c r="D33">
-        <v>6.871</v>
+        <v>1.718</v>
       </c>
       <c r="E33">
         <v>1.532</v>
       </c>
       <c r="F33">
-        <v>0.223</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,13 +1060,13 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>7.934</v>
+        <v>3.967</v>
       </c>
       <c r="E34">
         <v>2.506</v>
       </c>
       <c r="F34">
-        <v>0.316</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>44</v>
       </c>
       <c r="D35">
-        <v>7.934</v>
+        <v>3.967</v>
       </c>
       <c r="E35">
         <v>5.428</v>
       </c>
       <c r="F35">
-        <v>0.6840000000000001</v>
+        <v>1.368</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,13 +1100,13 @@
         <v>45</v>
       </c>
       <c r="D36">
-        <v>14.883</v>
+        <v>4.961</v>
       </c>
       <c r="E36">
         <v>4.744</v>
       </c>
       <c r="F36">
-        <v>0.319</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>46</v>
       </c>
       <c r="D37">
-        <v>14.883</v>
+        <v>4.961</v>
       </c>
       <c r="E37">
         <v>5.129</v>
       </c>
       <c r="F37">
-        <v>0.345</v>
+        <v>1.034</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>47</v>
       </c>
       <c r="D38">
-        <v>14.883</v>
+        <v>4.961</v>
       </c>
       <c r="E38">
         <v>5.01</v>
       </c>
       <c r="F38">
-        <v>0.337</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>19.458</v>
+        <v>4.864</v>
       </c>
       <c r="E39">
         <v>4.939</v>
       </c>
       <c r="F39">
-        <v>0.254</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>19.458</v>
+        <v>4.864</v>
       </c>
       <c r="E40">
         <v>5.409</v>
       </c>
       <c r="F40">
-        <v>0.278</v>
+        <v>1.112</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>19.458</v>
+        <v>4.864</v>
       </c>
       <c r="E41">
         <v>3.422</v>
       </c>
       <c r="F41">
-        <v>0.176</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>19.458</v>
+        <v>4.864</v>
       </c>
       <c r="E42">
         <v>5.688</v>
       </c>
       <c r="F42">
-        <v>0.292</v>
+        <v>1.169</v>
       </c>
     </row>
   </sheetData>
